--- a/RENCANA BON VOYAGE2.xlsx
+++ b/RENCANA BON VOYAGE2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169A566B-0D9D-42CB-9A54-7FD12B9EA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627641E1-9BA2-4DA6-A2CB-BA3D19CACC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3420" windowWidth="28800" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>NO</t>
   </si>
@@ -313,6 +313,24 @@
   </si>
   <si>
     <t>39 ORG</t>
+  </si>
+  <si>
+    <t>DEVA</t>
+  </si>
+  <si>
+    <t>ALDINO</t>
+  </si>
+  <si>
+    <t>61 ORG</t>
+  </si>
+  <si>
+    <t>40 ORG</t>
+  </si>
+  <si>
+    <t>20 DES 20</t>
+  </si>
+  <si>
+    <t>01 DES</t>
   </si>
 </sst>
 </file>
@@ -435,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,6 +641,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,11 +683,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,8 +1033,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,46 +1053,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="67"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="68"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1110,7 @@
       <c r="C3" s="44">
         <v>8</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="67">
         <v>44218</v>
       </c>
       <c r="E3" s="46" t="s">
@@ -1098,7 +1125,7 @@
       <c r="H3" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="68">
         <v>44251</v>
       </c>
       <c r="J3" s="61"/>
@@ -1185,7 +1212,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>5</v>
@@ -1241,7 +1268,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1297,7 +1324,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -1351,7 +1378,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
@@ -1400,19 +1427,33 @@
       <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7">
+        <v>7</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4">
         <v>15</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="30"/>
+      <c r="D21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="38">
+        <v>44440</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>101</v>
+      </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1422,7 +1463,9 @@
       <c r="D22" s="7"/>
       <c r="E22" s="20"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="G22" s="32">
+        <v>81232667763</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="30"/>
       <c r="J22" s="26"/>
@@ -1440,19 +1483,33 @@
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7">
+        <v>8</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="30"/>
+      <c r="D24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="38">
+        <v>44440</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="82" t="s">
+        <v>101</v>
+      </c>
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1462,7 +1519,9 @@
       <c r="D25" s="7"/>
       <c r="E25" s="20"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="G25" s="32">
+        <v>8214000800</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="30"/>
       <c r="J25" s="26"/>
@@ -1481,7 +1540,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -1537,7 +1596,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -1593,7 +1652,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
@@ -1647,7 +1706,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
@@ -1701,7 +1760,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>13</v>
@@ -1757,7 +1816,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>13</v>
@@ -1813,7 +1872,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
@@ -1821,7 +1880,7 @@
       <c r="C45" s="4">
         <v>32</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="24">
@@ -1836,7 +1895,9 @@
       <c r="H45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="81">
+        <v>44440</v>
+      </c>
       <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -1867,7 +1928,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>12</v>
@@ -1925,7 +1986,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>12</v>
@@ -1933,7 +1994,7 @@
       <c r="C51" s="4">
         <v>26</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="54">
@@ -1948,7 +2009,9 @@
       <c r="H51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="29"/>
+      <c r="I51" s="64">
+        <v>44440</v>
+      </c>
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -1979,7 +2042,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>14</v>
@@ -2035,7 +2098,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>14</v>
@@ -2089,7 +2152,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>15</v>
@@ -2147,7 +2210,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>15</v>
@@ -2155,7 +2218,7 @@
       <c r="C63" s="4">
         <v>28</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E63" s="24">
@@ -2170,7 +2233,9 @@
       <c r="H63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I63" s="29"/>
+      <c r="I63" s="81">
+        <v>44440</v>
+      </c>
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2567,46 +2632,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="67"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE2.xlsx
+++ b/RENCANA BON VOYAGE2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627641E1-9BA2-4DA6-A2CB-BA3D19CACC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157AD0B2-7CEE-4CD1-AC8D-08DB217A0C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,6 +647,15 @@
     <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,15 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1033,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,46 +1053,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="69"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="70"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1156,7 +1156,7 @@
       <c r="I5" s="62"/>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1181,7 +1181,9 @@
       <c r="H6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="68">
+        <v>44251</v>
+      </c>
       <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1439,7 +1441,7 @@
       <c r="D21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="71" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="38">
@@ -1451,7 +1453,7 @@
       <c r="H21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="I21" s="70" t="s">
         <v>101</v>
       </c>
       <c r="J21" s="26"/>
@@ -1495,7 +1497,7 @@
       <c r="D24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="71" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="38">
@@ -1507,7 +1509,7 @@
       <c r="H24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="I24" s="70" t="s">
         <v>101</v>
       </c>
       <c r="J24" s="26"/>
@@ -1895,7 +1897,7 @@
       <c r="H45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I45" s="81">
+      <c r="I45" s="69">
         <v>44440</v>
       </c>
       <c r="J45" s="28"/>
@@ -2233,7 +2235,7 @@
       <c r="H63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I63" s="81">
+      <c r="I63" s="69">
         <v>44440</v>
       </c>
       <c r="J63" s="28"/>
@@ -2632,46 +2634,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="78" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="69"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
